--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
@@ -91,7 +91,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H2">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I2">
         <v>0.9943843705197677</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.528713333333333</v>
+        <v>2.820332666666667</v>
       </c>
       <c r="N2">
-        <v>4.58614</v>
+        <v>8.460998</v>
       </c>
       <c r="O2">
-        <v>0.3616028309183848</v>
+        <v>0.5374031335545234</v>
       </c>
       <c r="P2">
-        <v>0.3616028309183849</v>
+        <v>0.5374031335545234</v>
       </c>
       <c r="Q2">
-        <v>2.293787985695555</v>
+        <v>4.231823616242445</v>
       </c>
       <c r="R2">
-        <v>20.64409187126</v>
+        <v>38.086412546182</v>
       </c>
       <c r="S2">
-        <v>0.359572203400944</v>
+        <v>0.5343852766749654</v>
       </c>
       <c r="T2">
-        <v>0.3595722034009441</v>
+        <v>0.5343852766749655</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,7 +602,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H3">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I3">
         <v>0.9943843705197677</v>
@@ -623,10 +623,10 @@
         <v>4.267837999999999</v>
       </c>
       <c r="O3">
-        <v>0.3365057112737634</v>
+        <v>0.2710731659200333</v>
       </c>
       <c r="P3">
-        <v>0.3365057112737634</v>
+        <v>0.2710731659200333</v>
       </c>
       <c r="Q3">
         <v>2.134587153749111</v>
@@ -635,10 +635,10 @@
         <v>19.211284383742</v>
       </c>
       <c r="S3">
-        <v>0.3346160198812679</v>
+        <v>0.2695509194581928</v>
       </c>
       <c r="T3">
-        <v>0.334616019881268</v>
+        <v>0.2695509194581929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,7 +664,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H4">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I4">
         <v>0.9943843705197677</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.251315666666667</v>
+        <v>0.8926926666666667</v>
       </c>
       <c r="N4">
-        <v>3.753947</v>
+        <v>2.678078</v>
       </c>
       <c r="O4">
-        <v>0.295987009188027</v>
+        <v>0.170099024855393</v>
       </c>
       <c r="P4">
-        <v>0.295987009188027</v>
+        <v>0.170099024855393</v>
       </c>
       <c r="Q4">
-        <v>1.877561201258111</v>
+        <v>1.339458267989111</v>
       </c>
       <c r="R4">
-        <v>16.898050811323</v>
+        <v>12.055124411902</v>
       </c>
       <c r="S4">
-        <v>0.2943248558134648</v>
+        <v>0.1691438117568563</v>
       </c>
       <c r="T4">
-        <v>0.2943248558134649</v>
+        <v>0.1691438117568564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,7 +726,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H5">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I5">
         <v>0.9943843705197677</v>
@@ -735,34 +735,34 @@
         <v>0.9943843705197678</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02496166666666667</v>
+        <v>0.1124383333333333</v>
       </c>
       <c r="N5">
-        <v>0.07488500000000001</v>
+        <v>0.337315</v>
       </c>
       <c r="O5">
-        <v>0.005904448619824787</v>
+        <v>0.02142467567005028</v>
       </c>
       <c r="P5">
-        <v>0.005904448619824787</v>
+        <v>0.02142467567005028</v>
       </c>
       <c r="Q5">
-        <v>0.03745422366277778</v>
+        <v>0.1687103085372223</v>
       </c>
       <c r="R5">
-        <v>0.337088012965</v>
+        <v>1.518392776835</v>
       </c>
       <c r="S5">
-        <v>0.005871291424090781</v>
+        <v>0.02130436262975313</v>
       </c>
       <c r="T5">
-        <v>0.005871291424090783</v>
+        <v>0.02130436262975313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.025421</v>
       </c>
       <c r="I6">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J6">
         <v>0.005615629480232303</v>
-      </c>
-      <c r="J6">
-        <v>0.005615629480232304</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.528713333333333</v>
+        <v>2.820332666666667</v>
       </c>
       <c r="N6">
-        <v>4.58614</v>
+        <v>8.460998</v>
       </c>
       <c r="O6">
-        <v>0.3616028309183848</v>
+        <v>0.5374031335545234</v>
       </c>
       <c r="P6">
-        <v>0.3616028309183849</v>
+        <v>0.5374031335545234</v>
       </c>
       <c r="Q6">
-        <v>0.01295380721555555</v>
+        <v>0.02389855890644444</v>
       </c>
       <c r="R6">
-        <v>0.11658426494</v>
+        <v>0.215087030158</v>
       </c>
       <c r="S6">
-        <v>0.002030627517440739</v>
+        <v>0.003017856879557999</v>
       </c>
       <c r="T6">
-        <v>0.002030627517440739</v>
+        <v>0.003017856879557999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.025421</v>
       </c>
       <c r="I7">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J7">
         <v>0.005615629480232303</v>
-      </c>
-      <c r="J7">
-        <v>0.005615629480232304</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.267837999999999</v>
       </c>
       <c r="O7">
-        <v>0.3365057112737634</v>
+        <v>0.2710731659200333</v>
       </c>
       <c r="P7">
-        <v>0.3365057112737634</v>
+        <v>0.2710731659200333</v>
       </c>
       <c r="Q7">
         <v>0.01205474553311111</v>
@@ -883,10 +883,10 @@
         <v>0.108492709798</v>
       </c>
       <c r="S7">
-        <v>0.001889691392495485</v>
+        <v>0.001522246461840441</v>
       </c>
       <c r="T7">
-        <v>0.001889691392495486</v>
+        <v>0.001522246461840441</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.025421</v>
       </c>
       <c r="I8">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J8">
         <v>0.005615629480232303</v>
-      </c>
-      <c r="J8">
-        <v>0.005615629480232304</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.251315666666667</v>
+        <v>0.8926926666666667</v>
       </c>
       <c r="N8">
-        <v>3.753947</v>
+        <v>2.678078</v>
       </c>
       <c r="O8">
-        <v>0.295987009188027</v>
+        <v>0.170099024855393</v>
       </c>
       <c r="P8">
-        <v>0.295987009188027</v>
+        <v>0.170099024855393</v>
       </c>
       <c r="Q8">
-        <v>0.01060323185411111</v>
+        <v>0.007564380093111111</v>
       </c>
       <c r="R8">
-        <v>0.09542908668699999</v>
+        <v>0.068079420838</v>
       </c>
       <c r="S8">
-        <v>0.001662153374562074</v>
+        <v>0.0009552130985367123</v>
       </c>
       <c r="T8">
-        <v>0.001662153374562074</v>
+        <v>0.0009552130985367125</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.025421</v>
       </c>
       <c r="I9">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J9">
         <v>0.005615629480232303</v>
       </c>
-      <c r="J9">
-        <v>0.005615629480232304</v>
-      </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02496166666666667</v>
+        <v>0.1124383333333333</v>
       </c>
       <c r="N9">
-        <v>0.07488500000000001</v>
+        <v>0.337315</v>
       </c>
       <c r="O9">
-        <v>0.005904448619824787</v>
+        <v>0.02142467567005028</v>
       </c>
       <c r="P9">
-        <v>0.005904448619824787</v>
+        <v>0.02142467567005028</v>
       </c>
       <c r="Q9">
-        <v>0.0002115168427777778</v>
+        <v>0.0009527649572222222</v>
       </c>
       <c r="R9">
-        <v>0.001903651585</v>
+        <v>0.008574884615</v>
       </c>
       <c r="S9">
-        <v>3.315719573400501E-05</v>
+        <v>0.0001203130402971501</v>
       </c>
       <c r="T9">
-        <v>3.315719573400501E-05</v>
+        <v>0.0001203130402971501</v>
       </c>
     </row>
   </sheetData>
